--- a/Covid_19_Dataset_and_References/References/29.xlsx
+++ b/Covid_19_Dataset_and_References/References/29.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="77">
   <si>
     <t>Doi</t>
   </si>
@@ -308,6 +308,42 @@
   </si>
   <si>
     <t>2019-01-12</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[ Galit Zeluf%Andersson%null%2,   Maria%Reinius%null%1,   Lars E%Eriksson%null%1,   Veronica%Svedhem%null%1,   Farhad Mazi%Esfahani%null%1,   Keshab%Deuba%null%1,   Deepa%Rao%null%1,   Goodluck Willey%Lyatuu%null%1,   Danielle%Giovenco%null%1,   Anna Mia%Ekström%null%2,  Galit Zeluf%Andersson%null%0,  Maria%Reinius%null%1,  Lars E%Eriksson%null%1,  Veronica%Svedhem%null%1,  Farhad Mazi%Esfahani%null%1,  Keshab%Deuba%null%1,  Deepa%Rao%null%1,  Goodluck Willey%Lyatuu%null%1,  Danielle%Giovenco%null%1,  Anna Mia%Ekström%null%1]</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>[Roland Brian%Büchter%NULL%1,  Melanie%Messer%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Garumma Tolu%Feyissa%NULL%1,  Craig%Lockwood%NULL%2,  Craig%Lockwood%NULL%0,  Mirkuzie%Woldie%NULL%1,  Zachary%Munn%NULL%1,  Jerome A.%Singh%NULL%2,  Jerome A.%Singh%NULL%0,  NULL%NULL%NULL%0,  NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sabine E.%Hanisch%hanisch.sabine@siemens.com%1,  Conal D.%Twomey%c.twomey@soton.ac.uk%1,  Andrew C. H.%Szeto%aszeto@ucalgary.ca%1,  Ulrich W.%Birner%ulrich.birner@siemens.com%1,  Dennis%Nowak%dennis.nowak@med.uni-muenchen.de%1,  Carla%Sabariego%Carla.sabariego@med.uni-muenchen.de%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[E.%Heim%NULL%1,  B. A.%Kohrt%NULL%2,  B. A.%Kohrt%NULL%0,  M.%Koschorke%NULL%1,  M.%Milenova%NULL%1,  G.%Thornicroft%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Polly H. X.%Ma%null%2,   Zenobia C. Y.%Chan%null%1,   Alice Yuen%Loke%null%1,  Polly H. X.%Ma%null%0,  Zenobia C. Y.%Chan%null%1,  Alice Yuen%Loke%null%1]</t>
+  </si>
+  <si>
+    <t>[ Harriet%Mills%null%2,   Nadine%Mulfinger%null%1,   Sophie%Raeder%null%1,   Nicolas%Rüsch%null%1,   Henry%Clements%null%1,   Katrina%Scior%null%1,  Harriet%Mills%null%0,  Nadine%Mulfinger%null%1,  Sophie%Raeder%null%1,  Nicolas%Rüsch%null%1,  Henry%Clements%null%1,  Katrina%Scior%null%1]</t>
+  </si>
+  <si>
+    <t>[Marija%Pantelic%NULL%1,  Janina I%Steinert%NULL%2,  Janina I%Steinert%NULL%0,  Jay%Park%NULL%1,  Shaun%Mellors%NULL%1,  Fungai%Murau%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -636,6 +672,9 @@
       <c r="H1" t="s">
         <v>23</v>
       </c>
+      <c r="I1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -651,7 +690,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -661,6 +700,9 @@
       </c>
       <c r="H2" t="s">
         <v>29</v>
+      </c>
+      <c r="I2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -677,7 +719,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="F3" t="s">
         <v>33</v>
@@ -687,6 +729,9 @@
       </c>
       <c r="H3" t="s">
         <v>35</v>
+      </c>
+      <c r="I3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="4">
@@ -714,6 +759,9 @@
       <c r="H4" t="s">
         <v>35</v>
       </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
@@ -729,7 +777,7 @@
         <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -739,6 +787,9 @@
       </c>
       <c r="H5" t="s">
         <v>40</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="6">
@@ -755,7 +806,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -765,6 +816,9 @@
       </c>
       <c r="H6" t="s">
         <v>45</v>
+      </c>
+      <c r="I6" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="7">
@@ -781,7 +835,7 @@
         <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -791,6 +845,9 @@
       </c>
       <c r="H7" t="s">
         <v>50</v>
+      </c>
+      <c r="I7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="8">
@@ -807,7 +864,7 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -817,6 +874,9 @@
       </c>
       <c r="H8" t="s">
         <v>55</v>
+      </c>
+      <c r="I8" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="9">
@@ -833,7 +893,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -843,6 +903,9 @@
       </c>
       <c r="H9" t="s">
         <v>29</v>
+      </c>
+      <c r="I9" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="10">
@@ -859,7 +922,7 @@
         <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="F10" t="s">
         <v>63</v>
@@ -869,6 +932,9 @@
       </c>
       <c r="H10" t="s">
         <v>64</v>
+      </c>
+      <c r="I10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -896,6 +962,9 @@
       <c r="H11" t="s">
         <v>35</v>
       </c>
+      <c r="I11" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
@@ -921,6 +990,9 @@
       </c>
       <c r="H12" t="s">
         <v>35</v>
+      </c>
+      <c r="I12" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/29.xlsx
+++ b/Covid_19_Dataset_and_References/References/29.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="111">
   <si>
     <t>Doi</t>
   </si>
@@ -344,6 +344,108 @@
   </si>
   <si>
     <t>[Marija%Pantelic%NULL%1,  Janina I%Steinert%NULL%2,  Janina I%Steinert%NULL%0,  Jay%Park%NULL%1,  Shaun%Mellors%NULL%1,  Fungai%Murau%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Galit Zeluf%Andersson%null%1,    Maria%Reinius%null%1,    Lars E%Eriksson%null%1,    Veronica%Svedhem%null%1,    Farhad Mazi%Esfahani%null%1,    Keshab%Deuba%null%1,    Deepa%Rao%null%1,    Goodluck Willey%Lyatuu%null%1,    Danielle%Giovenco%null%1,    Anna Mia%Ekström%null%2,   Galit Zeluf%Andersson%null%1,   Maria%Reinius%null%1,   Lars E%Eriksson%null%1,   Veronica%Svedhem%null%1,   Farhad Mazi%Esfahani%null%1,   Keshab%Deuba%null%1,   Deepa%Rao%null%1,   Goodluck Willey%Lyatuu%null%1,   Danielle%Giovenco%null%1,   Anna Mia%Ekström%null%1]</t>
+  </si>
+  <si>
+    <t>[Roland Brian%Büchter%NULL%1,   Melanie%Messer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Garumma Tolu%Feyissa%NULL%1,   Craig%Lockwood%NULL%2,   Craig%Lockwood%NULL%0,   Mirkuzie%Woldie%NULL%1,   Zachary%Munn%NULL%1,   Jerome A.%Singh%NULL%2,   Jerome A.%Singh%NULL%0,   NULL%NULL%NULL%0,   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sabine E.%Hanisch%hanisch.sabine@siemens.com%1,   Conal D.%Twomey%c.twomey@soton.ac.uk%1,   Andrew C. H.%Szeto%aszeto@ucalgary.ca%1,   Ulrich W.%Birner%ulrich.birner@siemens.com%1,   Dennis%Nowak%dennis.nowak@med.uni-muenchen.de%1,   Carla%Sabariego%Carla.sabariego@med.uni-muenchen.de%1]</t>
+  </si>
+  <si>
+    <t>[E.%Heim%NULL%1,   B. A.%Kohrt%NULL%2,   B. A.%Kohrt%NULL%0,   M.%Koschorke%NULL%1,   M.%Milenova%NULL%1,   G.%Thornicroft%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Polly H. X.%Ma%null%1,    Zenobia C. Y.%Chan%null%1,    Alice Yuen%Loke%null%1,   Polly H. X.%Ma%null%1,   Zenobia C. Y.%Chan%null%1,   Alice Yuen%Loke%null%1]</t>
+  </si>
+  <si>
+    <t>[ Harriet%Mills%null%1,    Nadine%Mulfinger%null%1,    Sophie%Raeder%null%1,    Nicolas%Rüsch%null%1,    Henry%Clements%null%1,    Katrina%Scior%null%1,   Harriet%Mills%null%1,   Nadine%Mulfinger%null%1,   Sophie%Raeder%null%1,   Nicolas%Rüsch%null%1,   Henry%Clements%null%1,   Katrina%Scior%null%1]</t>
+  </si>
+  <si>
+    <t>[Marija%Pantelic%NULL%1,   Janina I%Steinert%NULL%2,   Janina I%Steinert%NULL%0,   Jay%Park%NULL%1,   Shaun%Mellors%NULL%1,   Fungai%Murau%NULL%1]</t>
+  </si>
+  <si>
+    <t>Evidence-based interventions to reduce tuberculosis stigma: a systematic review</t>
+  </si>
+  <si>
+    <t>CORE</t>
+  </si>
+  <si>
+    <t>[ Galit Zeluf%Andersson%null%1,     Maria%Reinius%null%1,     Lars E%Eriksson%null%1,     Veronica%Svedhem%null%1,     Farhad Mazi%Esfahani%null%1,     Keshab%Deuba%null%1,     Deepa%Rao%null%1,     Goodluck Willey%Lyatuu%null%1,     Danielle%Giovenco%null%1,     Anna Mia%Ekström%null%2,    Galit Zeluf%Andersson%null%1,    Maria%Reinius%null%1,    Lars E%Eriksson%null%1,    Veronica%Svedhem%null%1,    Farhad Mazi%Esfahani%null%1,    Keshab%Deuba%null%1,    Deepa%Rao%null%1,    Goodluck Willey%Lyatuu%null%1,    Danielle%Giovenco%null%1,    Anna Mia%Ekström%null%1]</t>
+  </si>
+  <si>
+    <t>[Roland Brian%Büchter%NULL%1,    Melanie%Messer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Garumma Tolu%Feyissa%NULL%1,    Craig%Lockwood%NULL%2,    Craig%Lockwood%NULL%0,    Mirkuzie%Woldie%NULL%1,    Zachary%Munn%NULL%1,    Jerome A.%Singh%NULL%2,    Jerome A.%Singh%NULL%0,    NULL%NULL%NULL%0,    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sabine E.%Hanisch%hanisch.sabine@siemens.com%1,    Conal D.%Twomey%c.twomey@soton.ac.uk%1,    Andrew C. H.%Szeto%aszeto@ucalgary.ca%1,    Ulrich W.%Birner%ulrich.birner@siemens.com%1,    Dennis%Nowak%dennis.nowak@med.uni-muenchen.de%1,    Carla%Sabariego%Carla.sabariego@med.uni-muenchen.de%1]</t>
+  </si>
+  <si>
+    <t>[E.%Heim%NULL%1,    B. A.%Kohrt%NULL%2,    B. A.%Kohrt%NULL%0,    M.%Koschorke%NULL%1,    M.%Milenova%NULL%1,    G.%Thornicroft%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Polly H. X.%Ma%null%1,     Zenobia C. Y.%Chan%null%1,     Alice Yuen%Loke%null%1,    Polly H. X.%Ma%null%1,    Zenobia C. Y.%Chan%null%1,    Alice Yuen%Loke%null%1]</t>
+  </si>
+  <si>
+    <t>[ Harriet%Mills%null%1,     Nadine%Mulfinger%null%1,     Sophie%Raeder%null%1,     Nicolas%Rüsch%null%1,     Henry%Clements%null%1,     Katrina%Scior%null%1,    Harriet%Mills%null%1,    Nadine%Mulfinger%null%1,    Sophie%Raeder%null%1,    Nicolas%Rüsch%null%1,    Henry%Clements%null%1,    Katrina%Scior%null%1]</t>
+  </si>
+  <si>
+    <t>[Marija%Pantelic%NULL%1,    Janina I%Steinert%NULL%2,    Janina I%Steinert%NULL%0,    Jay%Park%NULL%1,    Shaun%Mellors%NULL%1,    Fungai%Murau%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Galit Zeluf%Andersson%null%1,      Maria%Reinius%null%1,      Lars E%Eriksson%null%1,      Veronica%Svedhem%null%1,      Farhad Mazi%Esfahani%null%1,      Keshab%Deuba%null%1,      Deepa%Rao%null%1,      Goodluck Willey%Lyatuu%null%1,      Danielle%Giovenco%null%1,      Anna Mia%Ekström%null%2,     Galit Zeluf%Andersson%null%1,     Maria%Reinius%null%1,     Lars E%Eriksson%null%1,     Veronica%Svedhem%null%1,     Farhad Mazi%Esfahani%null%1,     Keshab%Deuba%null%1,     Deepa%Rao%null%1,     Goodluck Willey%Lyatuu%null%1,     Danielle%Giovenco%null%1,     Anna Mia%Ekström%null%1]</t>
+  </si>
+  <si>
+    <t>[Roland Brian%Büchter%NULL%1,     Melanie%Messer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Garumma Tolu%Feyissa%NULL%1,     Craig%Lockwood%NULL%2,     Craig%Lockwood%NULL%0,     Mirkuzie%Woldie%NULL%1,     Zachary%Munn%NULL%1,     Jerome A.%Singh%NULL%2,     Jerome A.%Singh%NULL%0,     NULL%NULL%NULL%0,     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sabine E.%Hanisch%hanisch.sabine@siemens.com%1,     Conal D.%Twomey%c.twomey@soton.ac.uk%1,     Andrew C. H.%Szeto%aszeto@ucalgary.ca%1,     Ulrich W.%Birner%ulrich.birner@siemens.com%1,     Dennis%Nowak%dennis.nowak@med.uni-muenchen.de%1,     Carla%Sabariego%Carla.sabariego@med.uni-muenchen.de%1]</t>
+  </si>
+  <si>
+    <t>[E.%Heim%NULL%1,     B. A.%Kohrt%NULL%2,     B. A.%Kohrt%NULL%0,     M.%Koschorke%NULL%1,     M.%Milenova%NULL%1,     G.%Thornicroft%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Polly H. X.%Ma%null%1,      Zenobia C. Y.%Chan%null%1,      Alice Yuen%Loke%null%1,     Polly H. X.%Ma%null%1,     Zenobia C. Y.%Chan%null%1,     Alice Yuen%Loke%null%1]</t>
+  </si>
+  <si>
+    <t>[ Harriet%Mills%null%1,      Nadine%Mulfinger%null%1,      Sophie%Raeder%null%1,      Nicolas%Rüsch%null%1,      Henry%Clements%null%1,      Katrina%Scior%null%1,     Harriet%Mills%null%1,     Nadine%Mulfinger%null%1,     Sophie%Raeder%null%1,     Nicolas%Rüsch%null%1,     Henry%Clements%null%1,     Katrina%Scior%null%1]</t>
+  </si>
+  <si>
+    <t>[Marija%Pantelic%NULL%1,     Janina I%Steinert%NULL%2,     Janina I%Steinert%NULL%0,     Jay%Park%NULL%1,     Shaun%Mellors%NULL%1,     Fungai%Murau%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Galit Zeluf%Andersson%null%1,       Maria%Reinius%null%1,       Lars E%Eriksson%null%1,       Veronica%Svedhem%null%1,       Farhad Mazi%Esfahani%null%1,       Keshab%Deuba%null%1,       Deepa%Rao%null%1,       Goodluck Willey%Lyatuu%null%1,       Danielle%Giovenco%null%1,       Anna Mia%Ekström%null%2,      Galit Zeluf%Andersson%null%1,      Maria%Reinius%null%1,      Lars E%Eriksson%null%1,      Veronica%Svedhem%null%1,      Farhad Mazi%Esfahani%null%1,      Keshab%Deuba%null%1,      Deepa%Rao%null%1,      Goodluck Willey%Lyatuu%null%1,      Danielle%Giovenco%null%1,      Anna Mia%Ekström%null%1]</t>
+  </si>
+  <si>
+    <t>[Roland Brian%Büchter%NULL%1,      Melanie%Messer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Garumma Tolu%Feyissa%NULL%1,      Craig%Lockwood%NULL%2,      Craig%Lockwood%NULL%0,      Mirkuzie%Woldie%NULL%1,      Zachary%Munn%NULL%1,      Jerome A.%Singh%NULL%2,      Jerome A.%Singh%NULL%0,      NULL%NULL%NULL%0,      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sabine E.%Hanisch%hanisch.sabine@siemens.com%1,      Conal D.%Twomey%c.twomey@soton.ac.uk%1,      Andrew C. H.%Szeto%aszeto@ucalgary.ca%1,      Ulrich W.%Birner%ulrich.birner@siemens.com%1,      Dennis%Nowak%dennis.nowak@med.uni-muenchen.de%1,      Carla%Sabariego%Carla.sabariego@med.uni-muenchen.de%1]</t>
+  </si>
+  <si>
+    <t>[E.%Heim%NULL%1,      B. A.%Kohrt%NULL%2,      B. A.%Kohrt%NULL%0,      M.%Koschorke%NULL%1,      M.%Milenova%NULL%1,      G.%Thornicroft%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Polly H. X.%Ma%null%1,       Zenobia C. Y.%Chan%null%1,       Alice Yuen%Loke%null%1,      Polly H. X.%Ma%null%1,      Zenobia C. Y.%Chan%null%1,      Alice Yuen%Loke%null%1]</t>
+  </si>
+  <si>
+    <t>[ Harriet%Mills%null%1,       Nadine%Mulfinger%null%1,       Sophie%Raeder%null%1,       Nicolas%Rüsch%null%1,       Henry%Clements%null%1,       Katrina%Scior%null%1,      Harriet%Mills%null%1,      Nadine%Mulfinger%null%1,      Sophie%Raeder%null%1,      Nicolas%Rüsch%null%1,      Henry%Clements%null%1,      Katrina%Scior%null%1]</t>
+  </si>
+  <si>
+    <t>[Marija%Pantelic%NULL%1,      Janina I%Steinert%NULL%2,      Janina I%Steinert%NULL%0,      Jay%Park%NULL%1,      Shaun%Mellors%NULL%1,      Fungai%Murau%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -690,7 +792,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -719,7 +821,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="F3" t="s">
         <v>33</v>
@@ -777,7 +879,7 @@
         <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -806,7 +908,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -835,7 +937,7 @@
         <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -864,7 +966,7 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -893,7 +995,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -922,7 +1024,7 @@
         <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F10" t="s">
         <v>63</v>
@@ -974,7 +1076,7 @@
         <v>43040.0</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -983,10 +1085,10 @@
         <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s">
         <v>35</v>

--- a/Covid_19_Dataset_and_References/References/29.xlsx
+++ b/Covid_19_Dataset_and_References/References/29.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="136">
   <si>
     <t>Doi</t>
   </si>
@@ -446,6 +446,81 @@
   </si>
   <si>
     <t>[Marija%Pantelic%NULL%1,      Janina I%Steinert%NULL%2,      Janina I%Steinert%NULL%0,      Jay%Park%NULL%1,      Shaun%Mellors%NULL%1,      Fungai%Murau%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Galit Zeluf%Andersson%null%1,        Maria%Reinius%null%1,        Lars E%Eriksson%null%1,        Veronica%Svedhem%null%1,        Farhad Mazi%Esfahani%null%1,        Keshab%Deuba%null%1,        Deepa%Rao%null%1,        Goodluck Willey%Lyatuu%null%1,        Danielle%Giovenco%null%1,        Anna Mia%Ekström%null%1,       Galit Zeluf%Andersson%null%1,       Maria%Reinius%null%1,       Lars E%Eriksson%null%1,       Veronica%Svedhem%null%1,       Farhad Mazi%Esfahani%null%1,       Keshab%Deuba%null%1,       Deepa%Rao%null%1,       Goodluck Willey%Lyatuu%null%1,       Danielle%Giovenco%null%1,       Anna Mia%Ekström%null%1]</t>
+  </si>
+  <si>
+    <t>[Roland Brian%Büchter%NULL%1,       Melanie%Messer%NULL%1]</t>
+  </si>
+  <si>
+    <t>"Mass media interventions for reducing mental health-related stigma"</t>
+  </si>
+  <si>
+    <t>[Sarah%Clement%xref no email%1, Francesca%Lassman%xref no email%1, Elizabeth%Barley%xref no email%1, Sara%Evans-Lacko%xref no email%1, Paul%Williams%xref no email%1, Sosei%Yamaguchi%xref no email%1, Mike%Slade%xref no email%1, Nicolas%R\u00fcsch%xref no email%1, Graham%Thornicroft%xref no email%1]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-04-18</t>
+  </si>
+  <si>
+    <t>[Garumma Tolu%Feyissa%NULL%1,       Craig%Lockwood%NULL%2,       Craig%Lockwood%NULL%0,       Mirkuzie%Woldie%NULL%1,       Zachary%Munn%NULL%1,       Jerome A.%Singh%NULL%2,       Jerome A.%Singh%NULL%0,       NULL%NULL%NULL%0,       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sabine E.%Hanisch%hanisch.sabine@siemens.com%1,       Conal D.%Twomey%c.twomey@soton.ac.uk%1,       Andrew C. H.%Szeto%aszeto@ucalgary.ca%1,       Ulrich W.%Birner%ulrich.birner@siemens.com%1,       Dennis%Nowak%dennis.nowak@med.uni-muenchen.de%1,       Carla%Sabariego%Carla.sabariego@med.uni-muenchen.de%1]</t>
+  </si>
+  <si>
+    <t>[E.%Heim%NULL%1,       B. A.%Kohrt%NULL%2,       B. A.%Kohrt%NULL%0,       M.%Koschorke%NULL%1,       M.%Milenova%NULL%1,       G.%Thornicroft%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Polly H. X.%Ma%null%1,        Zenobia C. Y.%Chan%null%1,        Alice Yuen%Loke%null%1,       Polly H. X.%Ma%null%1,       Zenobia C. Y.%Chan%null%1,       Alice Yuen%Loke%null%1]</t>
+  </si>
+  <si>
+    <t>[ Harriet%Mills%null%1,        Nadine%Mulfinger%null%1,        Sophie%Raeder%null%1,        Nicolas%Rüsch%null%1,        Henry%Clements%null%1,        Katrina%Scior%null%1,       Harriet%Mills%null%1,       Nadine%Mulfinger%null%1,       Sophie%Raeder%null%1,       Nicolas%Rüsch%null%1,       Henry%Clements%null%1,       Katrina%Scior%null%1]</t>
+  </si>
+  <si>
+    <t>[Marija%Pantelic%NULL%1,       Janina I%Steinert%NULL%2,       Janina I%Steinert%NULL%0,       Jay%Park%NULL%1,       Shaun%Mellors%NULL%1,       Fungai%Murau%NULL%1]</t>
+  </si>
+  <si>
+    <t>"How to reduce stigma in leprosy \u2013 a systematic literature review"</t>
+  </si>
+  <si>
+    <t>[Silatham%Sermrittirong%xref no email%1, Wim H.%Van Brakel%xref no email%1, J.F.G.%Bunbers-aelen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-01-28</t>
+  </si>
+  <si>
+    <t>[ Galit Zeluf%Andersson%null%1,         Maria%Reinius%null%1,         Lars E%Eriksson%null%1,         Veronica%Svedhem%null%1,         Farhad Mazi%Esfahani%null%1,         Keshab%Deuba%null%1,         Deepa%Rao%null%1,         Goodluck Willey%Lyatuu%null%1,         Danielle%Giovenco%null%1,         Anna Mia%Ekström%null%1,        Galit Zeluf%Andersson%null%1,        Maria%Reinius%null%1,        Lars E%Eriksson%null%1,        Veronica%Svedhem%null%1,        Farhad Mazi%Esfahani%null%1,        Keshab%Deuba%null%1,        Deepa%Rao%null%1,        Goodluck Willey%Lyatuu%null%1,        Danielle%Giovenco%null%1,        Anna Mia%Ekström%null%1]</t>
+  </si>
+  <si>
+    <t>[Roland Brian%Büchter%NULL%1,        Melanie%Messer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sarah%Clement%xref no email%1,  Francesca%Lassman%xref no email%1,  Elizabeth%Barley%xref no email%1,  Sara%Evans-Lacko%xref no email%1,  Paul%Williams%xref no email%1,  Sosei%Yamaguchi%xref no email%1,  Mike%Slade%xref no email%1,  Nicolas%R\u00fcsch%xref no email%1,  Graham%Thornicroft%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Garumma Tolu%Feyissa%NULL%1,        Craig%Lockwood%NULL%2,        Craig%Lockwood%NULL%0,        Mirkuzie%Woldie%NULL%1,        Zachary%Munn%NULL%1,        Jerome A.%Singh%NULL%2,        Jerome A.%Singh%NULL%0,        NULL%NULL%NULL%0,        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sabine E.%Hanisch%hanisch.sabine@siemens.com%1,        Conal D.%Twomey%c.twomey@soton.ac.uk%1,        Andrew C. H.%Szeto%aszeto@ucalgary.ca%1,        Ulrich W.%Birner%ulrich.birner@siemens.com%1,        Dennis%Nowak%dennis.nowak@med.uni-muenchen.de%1,        Carla%Sabariego%Carla.sabariego@med.uni-muenchen.de%1]</t>
+  </si>
+  <si>
+    <t>[E.%Heim%NULL%1,        B. A.%Kohrt%NULL%2,        B. A.%Kohrt%NULL%0,        M.%Koschorke%NULL%1,        M.%Milenova%NULL%1,        G.%Thornicroft%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Polly H. X.%Ma%null%1,         Zenobia C. Y.%Chan%null%1,         Alice Yuen%Loke%null%1,        Polly H. X.%Ma%null%1,        Zenobia C. Y.%Chan%null%1,        Alice Yuen%Loke%null%1]</t>
+  </si>
+  <si>
+    <t>[ Harriet%Mills%null%1,         Nadine%Mulfinger%null%1,         Sophie%Raeder%null%1,         Nicolas%Rüsch%null%1,         Henry%Clements%null%1,         Katrina%Scior%null%1,        Harriet%Mills%null%1,        Nadine%Mulfinger%null%1,        Sophie%Raeder%null%1,        Nicolas%Rüsch%null%1,        Henry%Clements%null%1,        Katrina%Scior%null%1]</t>
+  </si>
+  <si>
+    <t>[Marija%Pantelic%NULL%1,        Janina I%Steinert%NULL%2,        Janina I%Steinert%NULL%0,        Jay%Park%NULL%1,        Shaun%Mellors%NULL%1,        Fungai%Murau%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Silatham%Sermrittirong%xref no email%1,  Wim H.%Van Brakel%xref no email%1,  J.F.G.%Bunbers-aelen%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -792,7 +867,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -821,7 +896,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="F3" t="s">
         <v>33</v>
@@ -844,22 +919,22 @@
         <v>41478.0</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="H4" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="I4" t="s">
         <v>67</v>
@@ -879,7 +954,7 @@
         <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -908,7 +983,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -937,7 +1012,7 @@
         <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -966,7 +1041,7 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -995,7 +1070,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -1024,7 +1099,7 @@
         <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="F10" t="s">
         <v>63</v>
@@ -1047,22 +1122,22 @@
         <v>41883.0</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="H11" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="I11" t="s">
         <v>67</v>

--- a/Covid_19_Dataset_and_References/References/29.xlsx
+++ b/Covid_19_Dataset_and_References/References/29.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="157">
   <si>
     <t>Doi</t>
   </si>
@@ -521,6 +521,77 @@
   </si>
   <si>
     <t>[Silatham%Sermrittirong%xref no email%1,  Wim H.%Van Brakel%xref no email%1,  J.F.G.%Bunbers-aelen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Galit Zeluf%Andersson%null%1,          Maria%Reinius%null%1,          Lars E%Eriksson%null%1,          Veronica%Svedhem%null%1,          Farhad Mazi%Esfahani%null%1,          Keshab%Deuba%null%1,          Deepa%Rao%null%1,          Goodluck Willey%Lyatuu%null%1,          Danielle%Giovenco%null%1,          Anna Mia%Ekström%null%1,         Galit Zeluf%Andersson%null%1,         Maria%Reinius%null%1,         Lars E%Eriksson%null%1,         Veronica%Svedhem%null%1,         Farhad Mazi%Esfahani%null%1,         Keshab%Deuba%null%1,         Deepa%Rao%null%1,         Goodluck Willey%Lyatuu%null%1,         Danielle%Giovenco%null%1,         Anna Mia%Ekström%null%1]</t>
+  </si>
+  <si>
+    <t>[Roland Brian%Büchter%NULL%1,         Melanie%Messer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sarah%Clement%xref no email%1,   Francesca%Lassman%xref no email%1,   Elizabeth%Barley%xref no email%1,   Sara%Evans-Lacko%xref no email%1,   Paul%Williams%xref no email%1,   Sosei%Yamaguchi%xref no email%1,   Mike%Slade%xref no email%1,   Nicolas%R\u00fcsch%xref no email%1,   Graham%Thornicroft%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Garumma Tolu%Feyissa%NULL%1,         Craig%Lockwood%NULL%2,         Craig%Lockwood%NULL%0,         Mirkuzie%Woldie%NULL%1,         Zachary%Munn%NULL%1,         Jerome A.%Singh%NULL%2,         Jerome A.%Singh%NULL%0,         NULL%NULL%NULL%0,         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sabine E.%Hanisch%hanisch.sabine@siemens.com%1,         Conal D.%Twomey%c.twomey@soton.ac.uk%1,         Andrew C. H.%Szeto%aszeto@ucalgary.ca%1,         Ulrich W.%Birner%ulrich.birner@siemens.com%1,         Dennis%Nowak%dennis.nowak@med.uni-muenchen.de%1,         Carla%Sabariego%Carla.sabariego@med.uni-muenchen.de%1]</t>
+  </si>
+  <si>
+    <t>[E.%Heim%NULL%1,         B. A.%Kohrt%NULL%2,         B. A.%Kohrt%NULL%0,         M.%Koschorke%NULL%1,         M.%Milenova%NULL%1,         G.%Thornicroft%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Polly H. X.%Ma%null%1,          Zenobia C. Y.%Chan%null%1,          Alice Yuen%Loke%null%1,         Polly H. X.%Ma%null%1,         Zenobia C. Y.%Chan%null%1,         Alice Yuen%Loke%null%1]</t>
+  </si>
+  <si>
+    <t>[ Harriet%Mills%null%1,          Nadine%Mulfinger%null%1,          Sophie%Raeder%null%1,          Nicolas%Rüsch%null%1,          Henry%Clements%null%1,          Katrina%Scior%null%1,         Harriet%Mills%null%1,         Nadine%Mulfinger%null%1,         Sophie%Raeder%null%1,         Nicolas%Rüsch%null%1,         Henry%Clements%null%1,         Katrina%Scior%null%1]</t>
+  </si>
+  <si>
+    <t>[Marija%Pantelic%NULL%1,         Janina I%Steinert%NULL%2,         Janina I%Steinert%NULL%0,         Jay%Park%NULL%1,         Shaun%Mellors%NULL%1,         Fungai%Murau%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Silatham%Sermrittirong%xref no email%1,   Wim H.%Van Brakel%xref no email%1,   J.F.G.%Bunbers-aelen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Galit Zeluf%Andersson%null%1,           Maria%Reinius%null%1,           Lars E%Eriksson%null%1,           Veronica%Svedhem%null%1,           Farhad Mazi%Esfahani%null%1,           Keshab%Deuba%null%1,           Deepa%Rao%null%1,           Goodluck Willey%Lyatuu%null%1,           Danielle%Giovenco%null%1,           Anna Mia%Ekström%null%1,          Galit Zeluf%Andersson%null%1,          Maria%Reinius%null%1,          Lars E%Eriksson%null%1,          Veronica%Svedhem%null%1,          Farhad Mazi%Esfahani%null%1,          Keshab%Deuba%null%1,          Deepa%Rao%null%1,          Goodluck Willey%Lyatuu%null%1,          Danielle%Giovenco%null%1,          Anna Mia%Ekström%null%1]</t>
+  </si>
+  <si>
+    <t>[Roland Brian%Büchter%NULL%1,          Melanie%Messer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sarah%Clement%xref no email%1,    Francesca%Lassman%xref no email%1,    Elizabeth%Barley%xref no email%1,    Sara%Evans-Lacko%xref no email%1,    Paul%Williams%xref no email%1,    Sosei%Yamaguchi%xref no email%1,    Mike%Slade%xref no email%1,    Nicolas%R\u00fcsch%xref no email%1,    Graham%Thornicroft%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Garumma Tolu%Feyissa%NULL%1,          Craig%Lockwood%NULL%2,          Craig%Lockwood%NULL%0,          Mirkuzie%Woldie%NULL%1,          Zachary%Munn%NULL%1,          Jerome A.%Singh%NULL%2,          Jerome A.%Singh%NULL%0,          NULL%NULL%NULL%0,          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sabine E.%Hanisch%hanisch.sabine@siemens.com%1,          Conal D.%Twomey%c.twomey@soton.ac.uk%1,          Andrew C. H.%Szeto%aszeto@ucalgary.ca%1,          Ulrich W.%Birner%ulrich.birner@siemens.com%1,          Dennis%Nowak%dennis.nowak@med.uni-muenchen.de%1,          Carla%Sabariego%Carla.sabariego@med.uni-muenchen.de%1]</t>
+  </si>
+  <si>
+    <t>[E.%Heim%NULL%1,          B. A.%Kohrt%NULL%2,          B. A.%Kohrt%NULL%0,          M.%Koschorke%NULL%1,          M.%Milenova%NULL%1,          G.%Thornicroft%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Stigma is a primary concern for people living with human immunodeficiency virus (HIV)/AIDS (PLWHA), and has great impact on their and their family members’ health.
+ While previous reviews have largely focused on the public stigma, this systematic review aims to evaluate the impact of HIV/acquired immunodeficiency syndrome (AIDS)-related self-stigma reduction interventions among PLWHA and their families.
+ A literature search using eight databases found 23 studies meeting the inclusion criteria.
+ Five types of intervention approaches were identified: (1) psycho-educational intervention, (2) supportive intervention for treatment adherence (antiretroviral therapy), (3) psychotherapy intervention, (4) narrative intervention, and (5) community participation intervention.
+ Overall, the reviewed articles suggested a general trend of promising effectiveness of these interventions for PLWHA and their family members.
+ Psycho-educational interventions were the main approach.
+ The results highlighted the need for more interventions targeting family members of PLWHA, and mixed-methods intervention studies.
+</t>
+  </si>
+  <si>
+    <t>[ Polly H. X.%Ma%null%0,  Zenobia C. Y.%Chan%null%1,  Alice Yuen%Loke%null%1]</t>
+  </si>
+  <si>
+    <t>[ Harriet%Mills%null%1,           Nadine%Mulfinger%null%1,           Sophie%Raeder%null%1,           Nicolas%Rüsch%null%1,           Henry%Clements%null%1,           Katrina%Scior%null%1,          Harriet%Mills%null%1,          Nadine%Mulfinger%null%1,          Sophie%Raeder%null%1,          Nicolas%Rüsch%null%1,          Henry%Clements%null%1,          Katrina%Scior%null%1]</t>
+  </si>
+  <si>
+    <t>[Marija%Pantelic%NULL%1,          Janina I%Steinert%NULL%2,          Janina I%Steinert%NULL%0,          Jay%Park%NULL%1,          Shaun%Mellors%NULL%1,          Fungai%Murau%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Silatham%Sermrittirong%xref no email%1,    Wim H.%Van Brakel%xref no email%1,    J.F.G.%Bunbers-aelen%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -867,7 +938,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -896,7 +967,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="F3" t="s">
         <v>33</v>
@@ -925,7 +996,7 @@
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -954,7 +1025,7 @@
         <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -983,7 +1054,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -1012,7 +1083,7 @@
         <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -1038,10 +1109,10 @@
         <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>152</v>
       </c>
       <c r="E8" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1070,7 +1141,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -1099,7 +1170,7 @@
         <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="F10" t="s">
         <v>63</v>
@@ -1128,7 +1199,7 @@
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>

--- a/Covid_19_Dataset_and_References/References/29.xlsx
+++ b/Covid_19_Dataset_and_References/References/29.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="177">
   <si>
     <t>Doi</t>
   </si>
@@ -592,6 +592,66 @@
   </si>
   <si>
     <t>[Silatham%Sermrittirong%xref no email%1,    Wim H.%Van Brakel%xref no email%1,    J.F.G.%Bunbers-aelen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Galit Zeluf%Andersson%null%1,            Maria%Reinius%null%1,            Lars E%Eriksson%null%1,            Veronica%Svedhem%null%1,            Farhad Mazi%Esfahani%null%1,            Keshab%Deuba%null%1,            Deepa%Rao%null%1,            Goodluck Willey%Lyatuu%null%1,            Danielle%Giovenco%null%1,            Anna Mia%Ekström%null%1,           Galit Zeluf%Andersson%null%1,           Maria%Reinius%null%1,           Lars E%Eriksson%null%1,           Veronica%Svedhem%null%1,           Farhad Mazi%Esfahani%null%1,           Keshab%Deuba%null%1,           Deepa%Rao%null%1,           Goodluck Willey%Lyatuu%null%1,           Danielle%Giovenco%null%1,           Anna Mia%Ekström%null%1]</t>
+  </si>
+  <si>
+    <t>[Roland Brian%Büchter%NULL%1,           Melanie%Messer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sarah%Clement%xref no email%1,     Francesca%Lassman%xref no email%1,     Elizabeth%Barley%xref no email%1,     Sara%Evans-Lacko%xref no email%1,     Paul%Williams%xref no email%1,     Sosei%Yamaguchi%xref no email%1,     Mike%Slade%xref no email%1,     Nicolas%R\u00fcsch%xref no email%1,     Graham%Thornicroft%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Garumma Tolu%Feyissa%NULL%1,           Craig%Lockwood%NULL%2,           Craig%Lockwood%NULL%0,           Mirkuzie%Woldie%NULL%1,           Zachary%Munn%NULL%1,           Jerome A.%Singh%NULL%2,           Jerome A.%Singh%NULL%0,           NULL%NULL%NULL%0,           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sabine E.%Hanisch%hanisch.sabine@siemens.com%1,           Conal D.%Twomey%c.twomey@soton.ac.uk%1,           Andrew C. H.%Szeto%aszeto@ucalgary.ca%1,           Ulrich W.%Birner%ulrich.birner@siemens.com%1,           Dennis%Nowak%dennis.nowak@med.uni-muenchen.de%1,           Carla%Sabariego%Carla.sabariego@med.uni-muenchen.de%1]</t>
+  </si>
+  <si>
+    <t>[E.%Heim%NULL%1,           B. A.%Kohrt%NULL%2,           B. A.%Kohrt%NULL%0,           M.%Koschorke%NULL%1,           M.%Milenova%NULL%1,           G.%Thornicroft%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Polly H. X.%Ma%null%1,   Zenobia C. Y.%Chan%null%1,   Alice Yuen%Loke%null%1]</t>
+  </si>
+  <si>
+    <t>[ Harriet%Mills%null%1,            Nadine%Mulfinger%null%1,            Sophie%Raeder%null%1,            Nicolas%Rüsch%null%1,            Henry%Clements%null%1,            Katrina%Scior%null%1,           Harriet%Mills%null%1,           Nadine%Mulfinger%null%1,           Sophie%Raeder%null%1,           Nicolas%Rüsch%null%1,           Henry%Clements%null%1,           Katrina%Scior%null%1]</t>
+  </si>
+  <si>
+    <t>[Marija%Pantelic%NULL%1,           Janina I%Steinert%NULL%2,           Janina I%Steinert%NULL%0,           Jay%Park%NULL%1,           Shaun%Mellors%NULL%1,           Fungai%Murau%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Silatham%Sermrittirong%xref no email%1,     Wim H.%Van Brakel%xref no email%1,     J.F.G.%Bunbers-aelen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Galit Zeluf%Andersson%null%1,             Maria%Reinius%null%1,             Lars E%Eriksson%null%1,             Veronica%Svedhem%null%1,             Farhad Mazi%Esfahani%null%1,             Keshab%Deuba%null%1,             Deepa%Rao%null%1,             Goodluck Willey%Lyatuu%null%1,             Danielle%Giovenco%null%1,             Anna Mia%Ekström%null%1,            Galit Zeluf%Andersson%null%1,            Maria%Reinius%null%1,            Lars E%Eriksson%null%1,            Veronica%Svedhem%null%1,            Farhad Mazi%Esfahani%null%1,            Keshab%Deuba%null%1,            Deepa%Rao%null%1,            Goodluck Willey%Lyatuu%null%1,            Danielle%Giovenco%null%1,            Anna Mia%Ekström%null%1]</t>
+  </si>
+  <si>
+    <t>[Roland Brian%Büchter%NULL%1,            Melanie%Messer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sarah%Clement%xref no email%1,      Francesca%Lassman%xref no email%1,      Elizabeth%Barley%xref no email%1,      Sara%Evans-Lacko%xref no email%1,      Paul%Williams%xref no email%1,      Sosei%Yamaguchi%xref no email%1,      Mike%Slade%xref no email%1,      Nicolas%R\u00fcsch%xref no email%1,      Graham%Thornicroft%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Garumma Tolu%Feyissa%NULL%1,            Craig%Lockwood%NULL%2,            Craig%Lockwood%NULL%0,            Mirkuzie%Woldie%NULL%1,            Zachary%Munn%NULL%1,            Jerome A.%Singh%NULL%2,            Jerome A.%Singh%NULL%0,            NULL%NULL%NULL%0,            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sabine E.%Hanisch%hanisch.sabine@siemens.com%1,            Conal D.%Twomey%c.twomey@soton.ac.uk%1,            Andrew C. H.%Szeto%aszeto@ucalgary.ca%1,            Ulrich W.%Birner%ulrich.birner@siemens.com%1,            Dennis%Nowak%dennis.nowak@med.uni-muenchen.de%1,            Carla%Sabariego%Carla.sabariego@med.uni-muenchen.de%1]</t>
+  </si>
+  <si>
+    <t>[E.%Heim%NULL%1,            B. A.%Kohrt%NULL%2,            B. A.%Kohrt%NULL%0,            M.%Koschorke%NULL%1,            M.%Milenova%NULL%1,            G.%Thornicroft%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Polly H. X.%Ma%null%1,    Zenobia C. Y.%Chan%null%1,    Alice Yuen%Loke%null%1]</t>
+  </si>
+  <si>
+    <t>[ Harriet%Mills%null%1,             Nadine%Mulfinger%null%1,             Sophie%Raeder%null%1,             Nicolas%Rüsch%null%1,             Henry%Clements%null%1,             Katrina%Scior%null%1,            Harriet%Mills%null%1,            Nadine%Mulfinger%null%1,            Sophie%Raeder%null%1,            Nicolas%Rüsch%null%1,            Henry%Clements%null%1,            Katrina%Scior%null%1]</t>
+  </si>
+  <si>
+    <t>[Marija%Pantelic%NULL%1,            Janina I%Steinert%NULL%2,            Janina I%Steinert%NULL%0,            Jay%Park%NULL%1,            Shaun%Mellors%NULL%1,            Fungai%Murau%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Silatham%Sermrittirong%xref no email%1,      Wim H.%Van Brakel%xref no email%1,      J.F.G.%Bunbers-aelen%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -938,7 +998,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -967,7 +1027,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="F3" t="s">
         <v>33</v>
@@ -996,7 +1056,7 @@
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1025,7 +1085,7 @@
         <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -1054,7 +1114,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -1083,7 +1143,7 @@
         <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -1112,7 +1172,7 @@
         <v>152</v>
       </c>
       <c r="E8" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1141,7 +1201,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -1170,7 +1230,7 @@
         <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="F10" t="s">
         <v>63</v>
@@ -1199,7 +1259,7 @@
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>

--- a/Covid_19_Dataset_and_References/References/29.xlsx
+++ b/Covid_19_Dataset_and_References/References/29.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="187">
   <si>
     <t>Doi</t>
   </si>
@@ -652,6 +652,36 @@
   </si>
   <si>
     <t>[Silatham%Sermrittirong%xref no email%1,      Wim H.%Van Brakel%xref no email%1,      J.F.G.%Bunbers-aelen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Galit Zeluf%Andersson%null%1,              Maria%Reinius%null%1,              Lars E%Eriksson%null%1,              Veronica%Svedhem%null%1,              Farhad Mazi%Esfahani%null%1,              Keshab%Deuba%null%1,              Deepa%Rao%null%1,              Goodluck Willey%Lyatuu%null%1,              Danielle%Giovenco%null%1,              Anna Mia%Ekström%null%1,             Galit Zeluf%Andersson%null%1,             Maria%Reinius%null%1,             Lars E%Eriksson%null%1,             Veronica%Svedhem%null%1,             Farhad Mazi%Esfahani%null%1,             Keshab%Deuba%null%1,             Deepa%Rao%null%1,             Goodluck Willey%Lyatuu%null%1,             Danielle%Giovenco%null%1,             Anna Mia%Ekström%null%1]</t>
+  </si>
+  <si>
+    <t>[Roland Brian%Büchter%NULL%1,             Melanie%Messer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sarah%Clement%xref no email%1,       Francesca%Lassman%xref no email%1,       Elizabeth%Barley%xref no email%1,       Sara%Evans-Lacko%xref no email%1,       Paul%Williams%xref no email%1,       Sosei%Yamaguchi%xref no email%1,       Mike%Slade%xref no email%1,       Nicolas%R\u00fcsch%xref no email%1,       Graham%Thornicroft%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Garumma Tolu%Feyissa%NULL%1,             Craig%Lockwood%NULL%2,             Craig%Lockwood%NULL%0,             Mirkuzie%Woldie%NULL%1,             Zachary%Munn%NULL%1,             Jerome A.%Singh%NULL%2,             Jerome A.%Singh%NULL%0,             NULL%NULL%NULL%0,             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sabine E.%Hanisch%hanisch.sabine@siemens.com%1,             Conal D.%Twomey%c.twomey@soton.ac.uk%1,             Andrew C. H.%Szeto%aszeto@ucalgary.ca%1,             Ulrich W.%Birner%ulrich.birner@siemens.com%1,             Dennis%Nowak%dennis.nowak@med.uni-muenchen.de%1,             Carla%Sabariego%Carla.sabariego@med.uni-muenchen.de%1]</t>
+  </si>
+  <si>
+    <t>[E.%Heim%NULL%1,             B. A.%Kohrt%NULL%2,             B. A.%Kohrt%NULL%0,             M.%Koschorke%NULL%1,             M.%Milenova%NULL%1,             G.%Thornicroft%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Polly H. X.%Ma%null%1,     Zenobia C. Y.%Chan%null%1,     Alice Yuen%Loke%null%1]</t>
+  </si>
+  <si>
+    <t>[ Harriet%Mills%null%1,              Nadine%Mulfinger%null%1,              Sophie%Raeder%null%1,              Nicolas%Rüsch%null%1,              Henry%Clements%null%1,              Katrina%Scior%null%1,             Harriet%Mills%null%1,             Nadine%Mulfinger%null%1,             Sophie%Raeder%null%1,             Nicolas%Rüsch%null%1,             Henry%Clements%null%1,             Katrina%Scior%null%1]</t>
+  </si>
+  <si>
+    <t>[Marija%Pantelic%NULL%1,             Janina I%Steinert%NULL%2,             Janina I%Steinert%NULL%0,             Jay%Park%NULL%1,             Shaun%Mellors%NULL%1,             Fungai%Murau%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Silatham%Sermrittirong%xref no email%1,       Wim H.%Van Brakel%xref no email%1,       J.F.G.%Bunbers-aelen%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -998,7 +1028,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1027,7 +1057,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="F3" t="s">
         <v>33</v>
@@ -1056,7 +1086,7 @@
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1085,7 +1115,7 @@
         <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -1114,7 +1144,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -1143,7 +1173,7 @@
         <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -1172,7 +1202,7 @@
         <v>152</v>
       </c>
       <c r="E8" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1201,7 +1231,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -1230,7 +1260,7 @@
         <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="F10" t="s">
         <v>63</v>
@@ -1259,7 +1289,7 @@
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>

--- a/Covid_19_Dataset_and_References/References/29.xlsx
+++ b/Covid_19_Dataset_and_References/References/29.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="197">
   <si>
     <t>Doi</t>
   </si>
@@ -682,6 +682,36 @@
   </si>
   <si>
     <t>[Silatham%Sermrittirong%xref no email%1,       Wim H.%Van Brakel%xref no email%1,       J.F.G.%Bunbers-aelen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Galit Zeluf%Andersson%null%1,               Maria%Reinius%null%1,               Lars E%Eriksson%null%1,               Veronica%Svedhem%null%1,               Farhad Mazi%Esfahani%null%1,               Keshab%Deuba%null%1,               Deepa%Rao%null%1,               Goodluck Willey%Lyatuu%null%1,               Danielle%Giovenco%null%1,               Anna Mia%Ekström%null%1,              Galit Zeluf%Andersson%null%1,              Maria%Reinius%null%1,              Lars E%Eriksson%null%1,              Veronica%Svedhem%null%1,              Farhad Mazi%Esfahani%null%1,              Keshab%Deuba%null%1,              Deepa%Rao%null%1,              Goodluck Willey%Lyatuu%null%1,              Danielle%Giovenco%null%1,              Anna Mia%Ekström%null%1]</t>
+  </si>
+  <si>
+    <t>[Roland Brian%Büchter%NULL%1,              Melanie%Messer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sarah%Clement%xref no email%1,        Francesca%Lassman%xref no email%1,        Elizabeth%Barley%xref no email%1,        Sara%Evans-Lacko%xref no email%1,        Paul%Williams%xref no email%1,        Sosei%Yamaguchi%xref no email%1,        Mike%Slade%xref no email%1,        Nicolas%R\u00fcsch%xref no email%1,        Graham%Thornicroft%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Garumma Tolu%Feyissa%NULL%1,              Craig%Lockwood%NULL%2,              Craig%Lockwood%NULL%0,              Mirkuzie%Woldie%NULL%1,              Zachary%Munn%NULL%1,              Jerome A.%Singh%NULL%2,              Jerome A.%Singh%NULL%0,              NULL%NULL%NULL%0,              NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sabine E.%Hanisch%hanisch.sabine@siemens.com%1,              Conal D.%Twomey%c.twomey@soton.ac.uk%1,              Andrew C. H.%Szeto%aszeto@ucalgary.ca%1,              Ulrich W.%Birner%ulrich.birner@siemens.com%1,              Dennis%Nowak%dennis.nowak@med.uni-muenchen.de%1,              Carla%Sabariego%Carla.sabariego@med.uni-muenchen.de%1]</t>
+  </si>
+  <si>
+    <t>[E.%Heim%NULL%1,              B. A.%Kohrt%NULL%2,              B. A.%Kohrt%NULL%0,              M.%Koschorke%NULL%1,              M.%Milenova%NULL%1,              G.%Thornicroft%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Polly H. X.%Ma%null%1,      Zenobia C. Y.%Chan%null%1,      Alice Yuen%Loke%null%1]</t>
+  </si>
+  <si>
+    <t>[ Harriet%Mills%null%1,               Nadine%Mulfinger%null%1,               Sophie%Raeder%null%1,               Nicolas%Rüsch%null%1,               Henry%Clements%null%1,               Katrina%Scior%null%1,              Harriet%Mills%null%1,              Nadine%Mulfinger%null%1,              Sophie%Raeder%null%1,              Nicolas%Rüsch%null%1,              Henry%Clements%null%1,              Katrina%Scior%null%1]</t>
+  </si>
+  <si>
+    <t>[Marija%Pantelic%NULL%1,              Janina I%Steinert%NULL%2,              Janina I%Steinert%NULL%0,              Jay%Park%NULL%1,              Shaun%Mellors%NULL%1,              Fungai%Murau%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Silatham%Sermrittirong%xref no email%1,        Wim H.%Van Brakel%xref no email%1,        J.F.G.%Bunbers-aelen%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -1028,7 +1058,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1057,7 +1087,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="F3" t="s">
         <v>33</v>
@@ -1086,7 +1116,7 @@
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1115,7 +1145,7 @@
         <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -1144,7 +1174,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -1173,7 +1203,7 @@
         <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -1202,7 +1232,7 @@
         <v>152</v>
       </c>
       <c r="E8" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1231,7 +1261,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -1260,7 +1290,7 @@
         <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="F10" t="s">
         <v>63</v>
@@ -1289,7 +1319,7 @@
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>

--- a/Covid_19_Dataset_and_References/References/29.xlsx
+++ b/Covid_19_Dataset_and_References/References/29.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="217">
   <si>
     <t>Doi</t>
   </si>
@@ -712,6 +712,66 @@
   </si>
   <si>
     <t>[Silatham%Sermrittirong%xref no email%1,        Wim H.%Van Brakel%xref no email%1,        J.F.G.%Bunbers-aelen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Galit Zeluf%Andersson%null%1,                Maria%Reinius%null%1,                Lars E%Eriksson%null%1,                Veronica%Svedhem%null%1,                Farhad Mazi%Esfahani%null%1,                Keshab%Deuba%null%1,                Deepa%Rao%null%1,                Goodluck Willey%Lyatuu%null%1,                Danielle%Giovenco%null%1,                Anna Mia%Ekström%null%1,               Galit Zeluf%Andersson%null%1,               Maria%Reinius%null%1,               Lars E%Eriksson%null%1,               Veronica%Svedhem%null%1,               Farhad Mazi%Esfahani%null%1,               Keshab%Deuba%null%1,               Deepa%Rao%null%1,               Goodluck Willey%Lyatuu%null%1,               Danielle%Giovenco%null%1,               Anna Mia%Ekström%null%1]</t>
+  </si>
+  <si>
+    <t>[Roland Brian%Büchter%NULL%1,               Melanie%Messer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sarah%Clement%xref no email%1,         Francesca%Lassman%xref no email%1,         Elizabeth%Barley%xref no email%1,         Sara%Evans-Lacko%xref no email%1,         Paul%Williams%xref no email%1,         Sosei%Yamaguchi%xref no email%1,         Mike%Slade%xref no email%1,         Nicolas%R\u00fcsch%xref no email%1,         Graham%Thornicroft%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Garumma Tolu%Feyissa%NULL%1,               Craig%Lockwood%NULL%2,               Craig%Lockwood%NULL%0,               Mirkuzie%Woldie%NULL%1,               Zachary%Munn%NULL%1,               Jerome A.%Singh%NULL%2,               Jerome A.%Singh%NULL%0,               NULL%NULL%NULL%0,               NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sabine E.%Hanisch%hanisch.sabine@siemens.com%1,               Conal D.%Twomey%c.twomey@soton.ac.uk%1,               Andrew C. H.%Szeto%aszeto@ucalgary.ca%1,               Ulrich W.%Birner%ulrich.birner@siemens.com%1,               Dennis%Nowak%dennis.nowak@med.uni-muenchen.de%1,               Carla%Sabariego%Carla.sabariego@med.uni-muenchen.de%1]</t>
+  </si>
+  <si>
+    <t>[E.%Heim%NULL%1,               B. A.%Kohrt%NULL%2,               B. A.%Kohrt%NULL%0,               M.%Koschorke%NULL%1,               M.%Milenova%NULL%1,               G.%Thornicroft%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Polly H. X.%Ma%null%1,       Zenobia C. Y.%Chan%null%1,       Alice Yuen%Loke%null%1]</t>
+  </si>
+  <si>
+    <t>[ Harriet%Mills%null%1,                Nadine%Mulfinger%null%1,                Sophie%Raeder%null%1,                Nicolas%Rüsch%null%1,                Henry%Clements%null%1,                Katrina%Scior%null%1,               Harriet%Mills%null%1,               Nadine%Mulfinger%null%1,               Sophie%Raeder%null%1,               Nicolas%Rüsch%null%1,               Henry%Clements%null%1,               Katrina%Scior%null%1]</t>
+  </si>
+  <si>
+    <t>[Marija%Pantelic%NULL%1,               Janina I%Steinert%NULL%2,               Janina I%Steinert%NULL%0,               Jay%Park%NULL%1,               Shaun%Mellors%NULL%1,               Fungai%Murau%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Silatham%Sermrittirong%xref no email%1,         Wim H.%Van Brakel%xref no email%1,         J.F.G.%Bunbers-aelen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Galit Zeluf%Andersson%null%1,                 Maria%Reinius%null%1,                 Lars E%Eriksson%null%1,                 Veronica%Svedhem%null%1,                 Farhad Mazi%Esfahani%null%1,                 Keshab%Deuba%null%1,                 Deepa%Rao%null%1,                 Goodluck Willey%Lyatuu%null%1,                 Danielle%Giovenco%null%1,                 Anna Mia%Ekström%null%1,                Galit Zeluf%Andersson%null%1,                Maria%Reinius%null%1,                Lars E%Eriksson%null%1,                Veronica%Svedhem%null%1,                Farhad Mazi%Esfahani%null%1,                Keshab%Deuba%null%1,                Deepa%Rao%null%1,                Goodluck Willey%Lyatuu%null%1,                Danielle%Giovenco%null%1,                Anna Mia%Ekström%null%1]</t>
+  </si>
+  <si>
+    <t>[Roland Brian%Büchter%NULL%1,                Melanie%Messer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sarah%Clement%xref no email%1,          Francesca%Lassman%xref no email%1,          Elizabeth%Barley%xref no email%1,          Sara%Evans-Lacko%xref no email%1,          Paul%Williams%xref no email%1,          Sosei%Yamaguchi%xref no email%1,          Mike%Slade%xref no email%1,          Nicolas%R\u00fcsch%xref no email%1,          Graham%Thornicroft%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Garumma Tolu%Feyissa%NULL%1,                Craig%Lockwood%NULL%2,                Craig%Lockwood%NULL%0,                Mirkuzie%Woldie%NULL%1,                Zachary%Munn%NULL%1,                Jerome A.%Singh%NULL%2,                Jerome A.%Singh%NULL%0,                NULL%NULL%NULL%0,                NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sabine E.%Hanisch%hanisch.sabine@siemens.com%1,                Conal D.%Twomey%c.twomey@soton.ac.uk%1,                Andrew C. H.%Szeto%aszeto@ucalgary.ca%1,                Ulrich W.%Birner%ulrich.birner@siemens.com%1,                Dennis%Nowak%dennis.nowak@med.uni-muenchen.de%1,                Carla%Sabariego%Carla.sabariego@med.uni-muenchen.de%1]</t>
+  </si>
+  <si>
+    <t>[E.%Heim%NULL%1,                B. A.%Kohrt%NULL%2,                B. A.%Kohrt%NULL%0,                M.%Koschorke%NULL%1,                M.%Milenova%NULL%1,                G.%Thornicroft%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Polly H. X.%Ma%null%1,        Zenobia C. Y.%Chan%null%1,        Alice Yuen%Loke%null%1]</t>
+  </si>
+  <si>
+    <t>[ Harriet%Mills%null%1,                 Nadine%Mulfinger%null%1,                 Sophie%Raeder%null%1,                 Nicolas%Rüsch%null%1,                 Henry%Clements%null%1,                 Katrina%Scior%null%1,                Harriet%Mills%null%1,                Nadine%Mulfinger%null%1,                Sophie%Raeder%null%1,                Nicolas%Rüsch%null%1,                Henry%Clements%null%1,                Katrina%Scior%null%1]</t>
+  </si>
+  <si>
+    <t>[Marija%Pantelic%NULL%1,                Janina I%Steinert%NULL%2,                Janina I%Steinert%NULL%0,                Jay%Park%NULL%1,                Shaun%Mellors%NULL%1,                Fungai%Murau%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Silatham%Sermrittirong%xref no email%1,          Wim H.%Van Brakel%xref no email%1,          J.F.G.%Bunbers-aelen%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -1058,7 +1118,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1087,7 +1147,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="F3" t="s">
         <v>33</v>
@@ -1116,7 +1176,7 @@
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1145,7 +1205,7 @@
         <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -1174,7 +1234,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -1203,7 +1263,7 @@
         <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -1232,7 +1292,7 @@
         <v>152</v>
       </c>
       <c r="E8" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1261,7 +1321,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -1290,7 +1350,7 @@
         <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="F10" t="s">
         <v>63</v>
@@ -1319,7 +1379,7 @@
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>

--- a/Covid_19_Dataset_and_References/References/29.xlsx
+++ b/Covid_19_Dataset_and_References/References/29.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="227">
   <si>
     <t>Doi</t>
   </si>
@@ -772,6 +772,36 @@
   </si>
   <si>
     <t>[Silatham%Sermrittirong%xref no email%1,          Wim H.%Van Brakel%xref no email%1,          J.F.G.%Bunbers-aelen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Galit Zeluf%Andersson%null%1,                  Maria%Reinius%null%1,                  Lars E%Eriksson%null%1,                  Veronica%Svedhem%null%1,                  Farhad Mazi%Esfahani%null%1,                  Keshab%Deuba%null%1,                  Deepa%Rao%null%1,                  Goodluck Willey%Lyatuu%null%1,                  Danielle%Giovenco%null%1,                  Anna Mia%Ekström%null%1,                 Galit Zeluf%Andersson%null%1,                 Maria%Reinius%null%1,                 Lars E%Eriksson%null%1,                 Veronica%Svedhem%null%1,                 Farhad Mazi%Esfahani%null%1,                 Keshab%Deuba%null%1,                 Deepa%Rao%null%1,                 Goodluck Willey%Lyatuu%null%1,                 Danielle%Giovenco%null%1,                 Anna Mia%Ekström%null%1]</t>
+  </si>
+  <si>
+    <t>[Roland Brian%Büchter%NULL%1,                 Melanie%Messer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sarah%Clement%xref no email%1,           Francesca%Lassman%xref no email%1,           Elizabeth%Barley%xref no email%1,           Sara%Evans-Lacko%xref no email%1,           Paul%Williams%xref no email%1,           Sosei%Yamaguchi%xref no email%1,           Mike%Slade%xref no email%1,           Nicolas%R\u00fcsch%xref no email%1,           Graham%Thornicroft%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Garumma Tolu%Feyissa%NULL%1,                 Craig%Lockwood%NULL%2,                 Craig%Lockwood%NULL%0,                 Mirkuzie%Woldie%NULL%1,                 Zachary%Munn%NULL%1,                 Jerome A.%Singh%NULL%2,                 Jerome A.%Singh%NULL%0,                 NULL%NULL%NULL%0,                 NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sabine E.%Hanisch%hanisch.sabine@siemens.com%1,                 Conal D.%Twomey%c.twomey@soton.ac.uk%1,                 Andrew C. H.%Szeto%aszeto@ucalgary.ca%1,                 Ulrich W.%Birner%ulrich.birner@siemens.com%1,                 Dennis%Nowak%dennis.nowak@med.uni-muenchen.de%1,                 Carla%Sabariego%Carla.sabariego@med.uni-muenchen.de%1]</t>
+  </si>
+  <si>
+    <t>[E.%Heim%NULL%1,                 B. A.%Kohrt%NULL%2,                 B. A.%Kohrt%NULL%0,                 M.%Koschorke%NULL%1,                 M.%Milenova%NULL%1,                 G.%Thornicroft%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Polly H. X.%Ma%null%1,         Zenobia C. Y.%Chan%null%1,         Alice Yuen%Loke%null%1]</t>
+  </si>
+  <si>
+    <t>[ Harriet%Mills%null%1,                  Nadine%Mulfinger%null%1,                  Sophie%Raeder%null%1,                  Nicolas%Rüsch%null%1,                  Henry%Clements%null%1,                  Katrina%Scior%null%1,                 Harriet%Mills%null%1,                 Nadine%Mulfinger%null%1,                 Sophie%Raeder%null%1,                 Nicolas%Rüsch%null%1,                 Henry%Clements%null%1,                 Katrina%Scior%null%1]</t>
+  </si>
+  <si>
+    <t>[Marija%Pantelic%NULL%1,                 Janina I%Steinert%NULL%2,                 Janina I%Steinert%NULL%0,                 Jay%Park%NULL%1,                 Shaun%Mellors%NULL%1,                 Fungai%Murau%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Silatham%Sermrittirong%xref no email%1,           Wim H.%Van Brakel%xref no email%1,           J.F.G.%Bunbers-aelen%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -1118,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1147,7 +1177,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="F3" t="s">
         <v>33</v>
@@ -1176,7 +1206,7 @@
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1205,7 +1235,7 @@
         <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -1234,7 +1264,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -1263,7 +1293,7 @@
         <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -1292,7 +1322,7 @@
         <v>152</v>
       </c>
       <c r="E8" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1321,7 +1351,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -1350,7 +1380,7 @@
         <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="F10" t="s">
         <v>63</v>
@@ -1379,7 +1409,7 @@
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>

--- a/Covid_19_Dataset_and_References/References/29.xlsx
+++ b/Covid_19_Dataset_and_References/References/29.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="240">
   <si>
     <t>Doi</t>
   </si>
@@ -802,6 +802,45 @@
   </si>
   <si>
     <t>[Silatham%Sermrittirong%xref no email%1,           Wim H.%Van Brakel%xref no email%1,           J.F.G.%Bunbers-aelen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Galit Zeluf%Andersson%null%1,                   Maria%Reinius%null%1,                   Lars E%Eriksson%null%1,                   Veronica%Svedhem%null%1,                   Farhad Mazi%Esfahani%null%1,                   Keshab%Deuba%null%1,                   Deepa%Rao%null%1,                   Goodluck Willey%Lyatuu%null%1,                   Danielle%Giovenco%null%1,                   Anna Mia%Ekström%null%1,                  Galit Zeluf%Andersson%null%1,                  Maria%Reinius%null%1,                  Lars E%Eriksson%null%1,                  Veronica%Svedhem%null%1,                  Farhad Mazi%Esfahani%null%1,                  Keshab%Deuba%null%1,                  Deepa%Rao%null%1,                  Goodluck Willey%Lyatuu%null%1,                  Danielle%Giovenco%null%1,                  Anna Mia%Ekström%null%1]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Roland Brian%Büchter%NULL%1,                  Melanie%Messer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sarah%Clement%xref no email%1,            Francesca%Lassman%xref no email%1,            Elizabeth%Barley%xref no email%1,            Sara%Evans-Lacko%xref no email%1,            Paul%Williams%xref no email%1,            Sosei%Yamaguchi%xref no email%1,            Mike%Slade%xref no email%1,            Nicolas%R\u00fcsch%xref no email%1,            Graham%Thornicroft%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Garumma Tolu%Feyissa%NULL%1,                  Craig%Lockwood%NULL%2,                  Craig%Lockwood%NULL%0,                  Mirkuzie%Woldie%NULL%1,                  Zachary%Munn%NULL%1,                  Jerome A.%Singh%NULL%2,                  Jerome A.%Singh%NULL%0,                  NULL%NULL%NULL%0,                  NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Sabine E.%Hanisch%hanisch.sabine@siemens.com%1,                  Conal D.%Twomey%c.twomey@soton.ac.uk%1,                  Andrew C. H.%Szeto%aszeto@ucalgary.ca%1,                  Ulrich W.%Birner%ulrich.birner@siemens.com%1,                  Dennis%Nowak%dennis.nowak@med.uni-muenchen.de%1,                  Carla%Sabariego%Carla.sabariego@med.uni-muenchen.de%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[E.%Heim%NULL%1,                  B. A.%Kohrt%NULL%2,                  B. A.%Kohrt%NULL%0,                  M.%Koschorke%NULL%1,                  M.%Milenova%NULL%1,                  G.%Thornicroft%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Polly H. X.%Ma%null%1,          Zenobia C. Y.%Chan%null%1,          Alice Yuen%Loke%null%1]</t>
+  </si>
+  <si>
+    <t>[ Harriet%Mills%null%1,                   Nadine%Mulfinger%null%1,                   Sophie%Raeder%null%1,                   Nicolas%Rüsch%null%1,                   Henry%Clements%null%1,                   Katrina%Scior%null%1,                  Harriet%Mills%null%1,                  Nadine%Mulfinger%null%1,                  Sophie%Raeder%null%1,                  Nicolas%Rüsch%null%1,                  Henry%Clements%null%1,                  Katrina%Scior%null%1]</t>
+  </si>
+  <si>
+    <t>[Marija%Pantelic%NULL%1,                  Janina I%Steinert%NULL%2,                  Janina I%Steinert%NULL%0,                  Jay%Park%NULL%1,                  Shaun%Mellors%NULL%1,                  Fungai%Murau%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Silatham%Sermrittirong%xref no email%1,            Wim H.%Van Brakel%xref no email%1,            J.F.G.%Bunbers-aelen%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -1148,7 +1187,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1160,7 +1199,7 @@
         <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>67</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3">
@@ -1177,7 +1216,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="F3" t="s">
         <v>33</v>
@@ -1206,7 +1245,7 @@
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1218,7 +1257,7 @@
         <v>116</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5">
@@ -1235,7 +1274,7 @@
         <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -1247,7 +1286,7 @@
         <v>40</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6">
@@ -1264,7 +1303,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -1276,7 +1315,7 @@
         <v>45</v>
       </c>
       <c r="I6" t="s">
-        <v>72</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7">
@@ -1293,7 +1332,7 @@
         <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -1305,7 +1344,7 @@
         <v>50</v>
       </c>
       <c r="I7" t="s">
-        <v>69</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8">
@@ -1322,7 +1361,7 @@
         <v>152</v>
       </c>
       <c r="E8" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1334,7 +1373,7 @@
         <v>55</v>
       </c>
       <c r="I8" t="s">
-        <v>67</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9">
@@ -1351,7 +1390,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -1363,7 +1402,7 @@
         <v>29</v>
       </c>
       <c r="I9" t="s">
-        <v>67</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10">
@@ -1380,7 +1419,7 @@
         <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="F10" t="s">
         <v>63</v>
@@ -1392,7 +1431,7 @@
         <v>64</v>
       </c>
       <c r="I10" t="s">
-        <v>69</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11">
@@ -1409,7 +1448,7 @@
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -1421,7 +1460,7 @@
         <v>125</v>
       </c>
       <c r="I11" t="s">
-        <v>67</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12">
@@ -1450,7 +1489,7 @@
         <v>35</v>
       </c>
       <c r="I12" t="s">
-        <v>67</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/29.xlsx
+++ b/Covid_19_Dataset_and_References/References/29.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="250">
   <si>
     <t>Doi</t>
   </si>
@@ -841,6 +841,36 @@
   </si>
   <si>
     <t>[Silatham%Sermrittirong%xref no email%1,            Wim H.%Van Brakel%xref no email%1,            J.F.G.%Bunbers-aelen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Galit Zeluf%Andersson%null%1,                    Maria%Reinius%null%1,                    Lars E%Eriksson%null%1,                    Veronica%Svedhem%null%1,                    Farhad Mazi%Esfahani%null%1,                    Keshab%Deuba%null%1,                    Deepa%Rao%null%1,                    Goodluck Willey%Lyatuu%null%1,                    Danielle%Giovenco%null%1,                    Anna Mia%Ekström%null%1,                   Galit Zeluf%Andersson%null%1,                   Maria%Reinius%null%1,                   Lars E%Eriksson%null%1,                   Veronica%Svedhem%null%1,                   Farhad Mazi%Esfahani%null%1,                   Keshab%Deuba%null%1,                   Deepa%Rao%null%1,                   Goodluck Willey%Lyatuu%null%1,                   Danielle%Giovenco%null%1,                   Anna Mia%Ekström%null%1]</t>
+  </si>
+  <si>
+    <t>[Roland Brian%Büchter%NULL%1,                   Melanie%Messer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sarah%Clement%xref no email%1,             Francesca%Lassman%xref no email%1,             Elizabeth%Barley%xref no email%1,             Sara%Evans-Lacko%xref no email%1,             Paul%Williams%xref no email%1,             Sosei%Yamaguchi%xref no email%1,             Mike%Slade%xref no email%1,             Nicolas%R\u00fcsch%xref no email%1,             Graham%Thornicroft%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Garumma Tolu%Feyissa%NULL%1,                   Craig%Lockwood%NULL%2,                   Craig%Lockwood%NULL%0,                   Mirkuzie%Woldie%NULL%1,                   Zachary%Munn%NULL%1,                   Jerome A.%Singh%NULL%2,                   Jerome A.%Singh%NULL%0,                   NULL%NULL%NULL%0,                   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sabine E.%Hanisch%hanisch.sabine@siemens.com%1,                   Conal D.%Twomey%c.twomey@soton.ac.uk%1,                   Andrew C. H.%Szeto%aszeto@ucalgary.ca%1,                   Ulrich W.%Birner%ulrich.birner@siemens.com%1,                   Dennis%Nowak%dennis.nowak@med.uni-muenchen.de%1,                   Carla%Sabariego%Carla.sabariego@med.uni-muenchen.de%1]</t>
+  </si>
+  <si>
+    <t>[E.%Heim%NULL%1,                   B. A.%Kohrt%NULL%2,                   B. A.%Kohrt%NULL%0,                   M.%Koschorke%NULL%1,                   M.%Milenova%NULL%1,                   G.%Thornicroft%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Polly H. X.%Ma%null%1,           Zenobia C. Y.%Chan%null%1,           Alice Yuen%Loke%null%1]</t>
+  </si>
+  <si>
+    <t>[ Harriet%Mills%null%1,                    Nadine%Mulfinger%null%1,                    Sophie%Raeder%null%1,                    Nicolas%Rüsch%null%1,                    Henry%Clements%null%1,                    Katrina%Scior%null%1,                   Harriet%Mills%null%1,                   Nadine%Mulfinger%null%1,                   Sophie%Raeder%null%1,                   Nicolas%Rüsch%null%1,                   Henry%Clements%null%1,                   Katrina%Scior%null%1]</t>
+  </si>
+  <si>
+    <t>[Marija%Pantelic%NULL%1,                   Janina I%Steinert%NULL%2,                   Janina I%Steinert%NULL%0,                   Jay%Park%NULL%1,                   Shaun%Mellors%NULL%1,                   Fungai%Murau%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Silatham%Sermrittirong%xref no email%1,             Wim H.%Van Brakel%xref no email%1,             J.F.G.%Bunbers-aelen%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -1187,7 +1217,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1216,7 +1246,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="F3" t="s">
         <v>33</v>
@@ -1245,7 +1275,7 @@
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1274,7 +1304,7 @@
         <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -1303,7 +1333,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -1332,7 +1362,7 @@
         <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -1361,7 +1391,7 @@
         <v>152</v>
       </c>
       <c r="E8" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1390,7 +1420,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -1419,7 +1449,7 @@
         <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="F10" t="s">
         <v>63</v>
@@ -1448,7 +1478,7 @@
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>

--- a/Covid_19_Dataset_and_References/References/29.xlsx
+++ b/Covid_19_Dataset_and_References/References/29.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2173" uniqueCount="296">
   <si>
     <t>Doi</t>
   </si>
@@ -871,6 +871,144 @@
   </si>
   <si>
     <t>[Silatham%Sermrittirong%xref no email%1,             Wim H.%Van Brakel%xref no email%1,             J.F.G.%Bunbers-aelen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[ Galit Zeluf%Andersson%null%1,                     Maria%Reinius%null%1,                     Lars E%Eriksson%null%1,                     Veronica%Svedhem%null%1,                     Farhad Mazi%Esfahani%null%1,                     Keshab%Deuba%null%1,                     Deepa%Rao%null%1,                     Goodluck Willey%Lyatuu%null%1,                     Danielle%Giovenco%null%1,                     Anna Mia%Ekström%null%1,                    Galit Zeluf%Andersson%null%1,                    Maria%Reinius%null%1,                    Lars E%Eriksson%null%1,                    Veronica%Svedhem%null%1,                    Farhad Mazi%Esfahani%null%1,                    Keshab%Deuba%null%1,                    Deepa%Rao%null%1,                    Goodluck Willey%Lyatuu%null%1,                    Danielle%Giovenco%null%1,                    Anna Mia%Ekström%null%1]</t>
+  </si>
+  <si>
+    <t>[Roland Brian%Büchter%NULL%1,                    Melanie%Messer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sarah%Clement%xref no email%0, Francesca%Lassman%xref no email%1, Elizabeth%Barley%xref no email%1, Sara%Evans-Lacko%xref no email%1, Paul%Williams%xref no email%1, Sosei%Yamaguchi%xref no email%1, Mike%Slade%xref no email%1, Nicolas%R\u00fcsch%xref no email%1, Graham%Thornicroft%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-05-31</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Wiley</t>
+  </si>
+  <si>
+    <t>[Garumma Tolu%Feyissa%NULL%1,                    Craig%Lockwood%NULL%2,                    Craig%Lockwood%NULL%0,                    Mirkuzie%Woldie%NULL%1,                    Zachary%Munn%NULL%1,                    Jerome A.%Singh%NULL%2,                    Jerome A.%Singh%NULL%0,                    NULL%NULL%NULL%0,                    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sabine E.%Hanisch%hanisch.sabine@siemens.com%1,                    Conal D.%Twomey%c.twomey@soton.ac.uk%1,                    Andrew C. H.%Szeto%aszeto@ucalgary.ca%1,                    Ulrich W.%Birner%ulrich.birner@siemens.com%1,                    Dennis%Nowak%dennis.nowak@med.uni-muenchen.de%1,                    Carla%Sabariego%Carla.sabariego@med.uni-muenchen.de%1]</t>
+  </si>
+  <si>
+    <t>[E.%Heim%NULL%1,                    B. A.%Kohrt%NULL%2,                    B. A.%Kohrt%NULL%0,                    M.%Koschorke%NULL%1,                    M.%Milenova%NULL%1,                    G.%Thornicroft%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Polly H. X.%Ma%null%1,            Zenobia C. Y.%Chan%null%1,            Alice Yuen%Loke%null%1]</t>
+  </si>
+  <si>
+    <t>[ Harriet%Mills%null%1,                     Nadine%Mulfinger%null%1,                     Sophie%Raeder%null%1,                     Nicolas%Rüsch%null%1,                     Henry%Clements%null%1,                     Katrina%Scior%null%1,                    Harriet%Mills%null%1,                    Nadine%Mulfinger%null%1,                    Sophie%Raeder%null%1,                    Nicolas%Rüsch%null%1,                    Henry%Clements%null%1,                    Katrina%Scior%null%1]</t>
+  </si>
+  <si>
+    <t>[Marija%Pantelic%NULL%1,                    Janina I%Steinert%NULL%2,                    Janina I%Steinert%NULL%0,                    Jay%Park%NULL%1,                    Shaun%Mellors%NULL%1,                    Fungai%Murau%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Silatham%Sermrittirong%xref no email%0, Wim H.%Van Brakel%xref no email%1, J.F.G.%Bunbers-aelen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Lepra</t>
+  </si>
+  <si>
+    <t>[ Galit Zeluf%Andersson%null%1,                      Maria%Reinius%null%1,                      Lars E%Eriksson%null%1,                      Veronica%Svedhem%null%1,                      Farhad Mazi%Esfahani%null%1,                      Keshab%Deuba%null%1,                      Deepa%Rao%null%1,                      Goodluck Willey%Lyatuu%null%1,                      Danielle%Giovenco%null%1,                      Anna Mia%Ekström%null%1,                     Galit Zeluf%Andersson%null%1,                     Maria%Reinius%null%1,                     Lars E%Eriksson%null%1,                     Veronica%Svedhem%null%1,                     Farhad Mazi%Esfahani%null%1,                     Keshab%Deuba%null%1,                     Deepa%Rao%null%1,                     Goodluck Willey%Lyatuu%null%1,                     Danielle%Giovenco%null%1,                     Anna Mia%Ekström%null%1]</t>
+  </si>
+  <si>
+    <t>[Roland Brian%Büchter%NULL%1,                     Melanie%Messer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Garumma Tolu%Feyissa%NULL%1,                     Craig%Lockwood%NULL%2,                     Craig%Lockwood%NULL%0,                     Mirkuzie%Woldie%NULL%1,                     Zachary%Munn%NULL%1,                     Jerome A.%Singh%NULL%2,                     Jerome A.%Singh%NULL%0,                     NULL%NULL%NULL%0,                     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sabine E.%Hanisch%hanisch.sabine@siemens.com%1,                     Conal D.%Twomey%c.twomey@soton.ac.uk%1,                     Andrew C. H.%Szeto%aszeto@ucalgary.ca%1,                     Ulrich W.%Birner%ulrich.birner@siemens.com%1,                     Dennis%Nowak%dennis.nowak@med.uni-muenchen.de%1,                     Carla%Sabariego%Carla.sabariego@med.uni-muenchen.de%1]</t>
+  </si>
+  <si>
+    <t>[E.%Heim%NULL%1,                     B. A.%Kohrt%NULL%2,                     B. A.%Kohrt%NULL%0,                     M.%Koschorke%NULL%1,                     M.%Milenova%NULL%1,                     G.%Thornicroft%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Polly H. X.%Ma%null%1,             Zenobia C. Y.%Chan%null%1,             Alice Yuen%Loke%null%1]</t>
+  </si>
+  <si>
+    <t>[ Harriet%Mills%null%1,                      Nadine%Mulfinger%null%1,                      Sophie%Raeder%null%1,                      Nicolas%Rüsch%null%1,                      Henry%Clements%null%1,                      Katrina%Scior%null%1,                     Harriet%Mills%null%1,                     Nadine%Mulfinger%null%1,                     Sophie%Raeder%null%1,                     Nicolas%Rüsch%null%1,                     Henry%Clements%null%1,                     Katrina%Scior%null%1]</t>
+  </si>
+  <si>
+    <t>[Marija%Pantelic%NULL%1,                     Janina I%Steinert%NULL%2,                     Janina I%Steinert%NULL%0,                     Jay%Park%NULL%1,                     Shaun%Mellors%NULL%1,                     Fungai%Murau%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Galit Zeluf%Andersson%null%1,                       Maria%Reinius%null%1,                       Lars E%Eriksson%null%1,                       Veronica%Svedhem%null%1,                       Farhad Mazi%Esfahani%null%1,                       Keshab%Deuba%null%1,                       Deepa%Rao%null%1,                       Goodluck Willey%Lyatuu%null%1,                       Danielle%Giovenco%null%1,                       Anna Mia%Ekström%null%1,                      Galit Zeluf%Andersson%null%1,                      Maria%Reinius%null%1,                      Lars E%Eriksson%null%1,                      Veronica%Svedhem%null%1,                      Farhad Mazi%Esfahani%null%1,                      Keshab%Deuba%null%1,                      Deepa%Rao%null%1,                      Goodluck Willey%Lyatuu%null%1,                      Danielle%Giovenco%null%1,                      Anna Mia%Ekström%null%1]</t>
+  </si>
+  <si>
+    <t>[Roland Brian%Büchter%NULL%1,                      Melanie%Messer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Garumma Tolu%Feyissa%NULL%1,                      Craig%Lockwood%NULL%2,                      Craig%Lockwood%NULL%0,                      Mirkuzie%Woldie%NULL%1,                      Zachary%Munn%NULL%1,                      Jerome A.%Singh%NULL%2,                      Jerome A.%Singh%NULL%0,                      NULL%NULL%NULL%0,                      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sabine E.%Hanisch%hanisch.sabine@siemens.com%1,                      Conal D.%Twomey%c.twomey@soton.ac.uk%1,                      Andrew C. H.%Szeto%aszeto@ucalgary.ca%1,                      Ulrich W.%Birner%ulrich.birner@siemens.com%1,                      Dennis%Nowak%dennis.nowak@med.uni-muenchen.de%1,                      Carla%Sabariego%Carla.sabariego@med.uni-muenchen.de%1]</t>
+  </si>
+  <si>
+    <t>[E.%Heim%NULL%1,                      B. A.%Kohrt%NULL%2,                      B. A.%Kohrt%NULL%0,                      M.%Koschorke%NULL%1,                      M.%Milenova%NULL%1,                      G.%Thornicroft%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Polly H. X.%Ma%null%1,              Zenobia C. Y.%Chan%null%1,              Alice Yuen%Loke%null%1]</t>
+  </si>
+  <si>
+    <t>[ Harriet%Mills%null%1,                       Nadine%Mulfinger%null%1,                       Sophie%Raeder%null%1,                       Nicolas%Rüsch%null%1,                       Henry%Clements%null%1,                       Katrina%Scior%null%1,                      Harriet%Mills%null%1,                      Nadine%Mulfinger%null%1,                      Sophie%Raeder%null%1,                      Nicolas%Rüsch%null%1,                      Henry%Clements%null%1,                      Katrina%Scior%null%1]</t>
+  </si>
+  <si>
+    <t>[Marija%Pantelic%NULL%1,                      Janina I%Steinert%NULL%2,                      Janina I%Steinert%NULL%0,                      Jay%Park%NULL%1,                      Shaun%Mellors%NULL%1,                      Fungai%Murau%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Galit Zeluf%Andersson%null%1,                        Maria%Reinius%null%1,                        Lars E%Eriksson%null%1,                        Veronica%Svedhem%null%1,                        Farhad Mazi%Esfahani%null%1,                        Keshab%Deuba%null%1,                        Deepa%Rao%null%1,                        Goodluck Willey%Lyatuu%null%1,                        Danielle%Giovenco%null%1,                        Anna Mia%Ekström%null%1,                       Galit Zeluf%Andersson%null%1,                       Maria%Reinius%null%1,                       Lars E%Eriksson%null%1,                       Veronica%Svedhem%null%1,                       Farhad Mazi%Esfahani%null%1,                       Keshab%Deuba%null%1,                       Deepa%Rao%null%1,                       Goodluck Willey%Lyatuu%null%1,                       Danielle%Giovenco%null%1,                       Anna Mia%Ekström%null%1]</t>
+  </si>
+  <si>
+    <t>[Roland Brian%Büchter%NULL%1,                       Melanie%Messer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Garumma Tolu%Feyissa%NULL%1,                       Craig%Lockwood%NULL%2,                       Craig%Lockwood%NULL%0,                       Mirkuzie%Woldie%NULL%1,                       Zachary%Munn%NULL%1,                       Jerome A.%Singh%NULL%2,                       Jerome A.%Singh%NULL%0,                       NULL%NULL%NULL%0,                       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sabine E.%Hanisch%hanisch.sabine@siemens.com%1,                       Conal D.%Twomey%c.twomey@soton.ac.uk%1,                       Andrew C. H.%Szeto%aszeto@ucalgary.ca%1,                       Ulrich W.%Birner%ulrich.birner@siemens.com%1,                       Dennis%Nowak%dennis.nowak@med.uni-muenchen.de%1,                       Carla%Sabariego%Carla.sabariego@med.uni-muenchen.de%1]</t>
+  </si>
+  <si>
+    <t>[E.%Heim%NULL%1,                       B. A.%Kohrt%NULL%2,                       B. A.%Kohrt%NULL%0,                       M.%Koschorke%NULL%1,                       M.%Milenova%NULL%1,                       G.%Thornicroft%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Polly H. X.%Ma%null%1,               Zenobia C. Y.%Chan%null%1,               Alice Yuen%Loke%null%1]</t>
+  </si>
+  <si>
+    <t>[ Harriet%Mills%null%1,                        Nadine%Mulfinger%null%1,                        Sophie%Raeder%null%1,                        Nicolas%Rüsch%null%1,                        Henry%Clements%null%1,                        Katrina%Scior%null%1,                       Harriet%Mills%null%1,                       Nadine%Mulfinger%null%1,                       Sophie%Raeder%null%1,                       Nicolas%Rüsch%null%1,                       Henry%Clements%null%1,                       Katrina%Scior%null%1]</t>
+  </si>
+  <si>
+    <t>[Marija%Pantelic%NULL%1,                       Janina I%Steinert%NULL%2,                       Janina I%Steinert%NULL%0,                       Jay%Park%NULL%1,                       Shaun%Mellors%NULL%1,                       Fungai%Murau%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Galit Zeluf%Andersson%null%1,                         Maria%Reinius%null%1,                         Lars E%Eriksson%null%1,                         Veronica%Svedhem%null%1,                         Farhad Mazi%Esfahani%null%1,                         Keshab%Deuba%null%1,                         Deepa%Rao%null%1,                         Goodluck Willey%Lyatuu%null%1,                         Danielle%Giovenco%null%1,                         Anna Mia%Ekström%null%1,                        Galit Zeluf%Andersson%null%1,                        Maria%Reinius%null%1,                        Lars E%Eriksson%null%1,                        Veronica%Svedhem%null%1,                        Farhad Mazi%Esfahani%null%1,                        Keshab%Deuba%null%1,                        Deepa%Rao%null%1,                        Goodluck Willey%Lyatuu%null%1,                        Danielle%Giovenco%null%1,                        Anna Mia%Ekström%null%1]</t>
+  </si>
+  <si>
+    <t>[Roland Brian%Büchter%NULL%1,                        Melanie%Messer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Garumma Tolu%Feyissa%NULL%1,                        Craig%Lockwood%NULL%2,                        Craig%Lockwood%NULL%0,                        Mirkuzie%Woldie%NULL%1,                        Zachary%Munn%NULL%1,                        Jerome A.%Singh%NULL%2,                        Jerome A.%Singh%NULL%0,                        NULL%NULL%NULL%0,                        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sabine E.%Hanisch%hanisch.sabine@siemens.com%1,                        Conal D.%Twomey%c.twomey@soton.ac.uk%1,                        Andrew C. H.%Szeto%aszeto@ucalgary.ca%1,                        Ulrich W.%Birner%ulrich.birner@siemens.com%1,                        Dennis%Nowak%dennis.nowak@med.uni-muenchen.de%1,                        Carla%Sabariego%Carla.sabariego@med.uni-muenchen.de%1]</t>
+  </si>
+  <si>
+    <t>[E.%Heim%NULL%1,                        B. A.%Kohrt%NULL%2,                        B. A.%Kohrt%NULL%0,                        M.%Koschorke%NULL%1,                        M.%Milenova%NULL%1,                        G.%Thornicroft%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Polly H. X.%Ma%null%1,                Zenobia C. Y.%Chan%null%1,                Alice Yuen%Loke%null%1]</t>
+  </si>
+  <si>
+    <t>[ Harriet%Mills%null%1,                         Nadine%Mulfinger%null%1,                         Sophie%Raeder%null%1,                         Nicolas%Rüsch%null%1,                         Henry%Clements%null%1,                         Katrina%Scior%null%1,                        Harriet%Mills%null%1,                        Nadine%Mulfinger%null%1,                        Sophie%Raeder%null%1,                        Nicolas%Rüsch%null%1,                        Henry%Clements%null%1,                        Katrina%Scior%null%1]</t>
+  </si>
+  <si>
+    <t>[Marija%Pantelic%NULL%1,                        Janina I%Steinert%NULL%2,                        Janina I%Steinert%NULL%0,                        Jay%Park%NULL%1,                        Shaun%Mellors%NULL%1,                        Fungai%Murau%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1202,6 +1340,9 @@
       <c r="I1" t="s">
         <v>65</v>
       </c>
+      <c r="J1" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1217,7 +1358,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>240</v>
+        <v>288</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1230,6 +1371,9 @@
       </c>
       <c r="I2" t="s">
         <v>228</v>
+      </c>
+      <c r="J2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -1246,7 +1390,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>241</v>
+        <v>289</v>
       </c>
       <c r="F3" t="s">
         <v>33</v>
@@ -1259,6 +1403,9 @@
       </c>
       <c r="I3" t="s">
         <v>69</v>
+      </c>
+      <c r="J3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="4">
@@ -1275,7 +1422,7 @@
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>242</v>
+        <v>159</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1284,10 +1431,13 @@
         <v>115</v>
       </c>
       <c r="H4" t="s">
-        <v>116</v>
+        <v>254</v>
       </c>
       <c r="I4" t="s">
-        <v>228</v>
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="5">
@@ -1304,7 +1454,7 @@
         <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>243</v>
+        <v>290</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -1317,6 +1467,9 @@
       </c>
       <c r="I5" t="s">
         <v>232</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="6">
@@ -1333,7 +1486,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>244</v>
+        <v>291</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -1346,6 +1499,9 @@
       </c>
       <c r="I6" t="s">
         <v>234</v>
+      </c>
+      <c r="J6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="7">
@@ -1362,7 +1518,7 @@
         <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>245</v>
+        <v>292</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -1375,6 +1531,9 @@
       </c>
       <c r="I7" t="s">
         <v>232</v>
+      </c>
+      <c r="J7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="8">
@@ -1391,7 +1550,7 @@
         <v>152</v>
       </c>
       <c r="E8" t="s">
-        <v>246</v>
+        <v>293</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1404,6 +1563,9 @@
       </c>
       <c r="I8" t="s">
         <v>228</v>
+      </c>
+      <c r="J8" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="9">
@@ -1420,7 +1582,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -1433,6 +1595,9 @@
       </c>
       <c r="I9" t="s">
         <v>228</v>
+      </c>
+      <c r="J9" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="10">
@@ -1449,7 +1614,7 @@
         <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>248</v>
+        <v>295</v>
       </c>
       <c r="F10" t="s">
         <v>63</v>
@@ -1462,6 +1627,9 @@
       </c>
       <c r="I10" t="s">
         <v>232</v>
+      </c>
+      <c r="J10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="11">
@@ -1478,7 +1646,7 @@
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>249</v>
+        <v>166</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -1490,7 +1658,10 @@
         <v>125</v>
       </c>
       <c r="I11" t="s">
-        <v>228</v>
+        <v>67</v>
+      </c>
+      <c r="J11" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="12">
@@ -1520,6 +1691,9 @@
       </c>
       <c r="I12" t="s">
         <v>228</v>
+      </c>
+      <c r="J12" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/29.xlsx
+++ b/Covid_19_Dataset_and_References/References/29.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2173" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2365" uniqueCount="312">
   <si>
     <t>Doi</t>
   </si>
@@ -1009,6 +1009,54 @@
   </si>
   <si>
     <t>[Marija%Pantelic%NULL%1,                        Janina I%Steinert%NULL%2,                        Janina I%Steinert%NULL%0,                        Jay%Park%NULL%1,                        Shaun%Mellors%NULL%1,                        Fungai%Murau%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Galit Zeluf%Andersson%null%1,                          Maria%Reinius%null%1,                          Lars E%Eriksson%null%1,                          Veronica%Svedhem%null%1,                          Farhad Mazi%Esfahani%null%1,                          Keshab%Deuba%null%1,                          Deepa%Rao%null%1,                          Goodluck Willey%Lyatuu%null%1,                          Danielle%Giovenco%null%1,                          Anna Mia%Ekström%null%1,                         Galit Zeluf%Andersson%null%1,                         Maria%Reinius%null%1,                         Lars E%Eriksson%null%1,                         Veronica%Svedhem%null%1,                         Farhad Mazi%Esfahani%null%1,                         Keshab%Deuba%null%1,                         Deepa%Rao%null%1,                         Goodluck Willey%Lyatuu%null%1,                         Danielle%Giovenco%null%1,                         Anna Mia%Ekström%null%1]</t>
+  </si>
+  <si>
+    <t>[Roland Brian%Büchter%NULL%1,                         Melanie%Messer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Garumma Tolu%Feyissa%NULL%1,                         Craig%Lockwood%NULL%2,                         Craig%Lockwood%NULL%0,                         Mirkuzie%Woldie%NULL%1,                         Zachary%Munn%NULL%1,                         Jerome A.%Singh%NULL%2,                         Jerome A.%Singh%NULL%0,                         NULL%NULL%NULL%0,                         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sabine E.%Hanisch%hanisch.sabine@siemens.com%1,                         Conal D.%Twomey%c.twomey@soton.ac.uk%1,                         Andrew C. H.%Szeto%aszeto@ucalgary.ca%1,                         Ulrich W.%Birner%ulrich.birner@siemens.com%1,                         Dennis%Nowak%dennis.nowak@med.uni-muenchen.de%1,                         Carla%Sabariego%Carla.sabariego@med.uni-muenchen.de%1]</t>
+  </si>
+  <si>
+    <t>[E.%Heim%NULL%1,                         B. A.%Kohrt%NULL%2,                         B. A.%Kohrt%NULL%0,                         M.%Koschorke%NULL%1,                         M.%Milenova%NULL%1,                         G.%Thornicroft%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Polly H. X.%Ma%null%1,                 Zenobia C. Y.%Chan%null%1,                 Alice Yuen%Loke%null%1]</t>
+  </si>
+  <si>
+    <t>[ Harriet%Mills%null%1,                          Nadine%Mulfinger%null%1,                          Sophie%Raeder%null%1,                          Nicolas%Rüsch%null%1,                          Henry%Clements%null%1,                          Katrina%Scior%null%1,                         Harriet%Mills%null%1,                         Nadine%Mulfinger%null%1,                         Sophie%Raeder%null%1,                         Nicolas%Rüsch%null%1,                         Henry%Clements%null%1,                         Katrina%Scior%null%1]</t>
+  </si>
+  <si>
+    <t>[Marija%Pantelic%NULL%1,                         Janina I%Steinert%NULL%2,                         Janina I%Steinert%NULL%0,                         Jay%Park%NULL%1,                         Shaun%Mellors%NULL%1,                         Fungai%Murau%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Galit Zeluf%Andersson%null%1,                           Maria%Reinius%null%1,                           Lars E%Eriksson%null%1,                           Veronica%Svedhem%null%1,                           Farhad Mazi%Esfahani%null%1,                           Keshab%Deuba%null%1,                           Deepa%Rao%null%1,                           Goodluck Willey%Lyatuu%null%1,                           Danielle%Giovenco%null%1,                           Anna Mia%Ekström%null%1,                          Galit Zeluf%Andersson%null%1,                          Maria%Reinius%null%1,                          Lars E%Eriksson%null%1,                          Veronica%Svedhem%null%1,                          Farhad Mazi%Esfahani%null%1,                          Keshab%Deuba%null%1,                          Deepa%Rao%null%1,                          Goodluck Willey%Lyatuu%null%1,                          Danielle%Giovenco%null%1,                          Anna Mia%Ekström%null%1]</t>
+  </si>
+  <si>
+    <t>[Roland Brian%Büchter%NULL%1,                          Melanie%Messer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Garumma Tolu%Feyissa%NULL%1,                          Craig%Lockwood%NULL%2,                          Craig%Lockwood%NULL%0,                          Mirkuzie%Woldie%NULL%1,                          Zachary%Munn%NULL%1,                          Jerome A.%Singh%NULL%2,                          Jerome A.%Singh%NULL%0,                          NULL%NULL%NULL%0,                          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sabine E.%Hanisch%hanisch.sabine@siemens.com%1,                          Conal D.%Twomey%c.twomey@soton.ac.uk%1,                          Andrew C. H.%Szeto%aszeto@ucalgary.ca%1,                          Ulrich W.%Birner%ulrich.birner@siemens.com%1,                          Dennis%Nowak%dennis.nowak@med.uni-muenchen.de%1,                          Carla%Sabariego%Carla.sabariego@med.uni-muenchen.de%1]</t>
+  </si>
+  <si>
+    <t>[E.%Heim%NULL%1,                          B. A.%Kohrt%NULL%2,                          B. A.%Kohrt%NULL%0,                          M.%Koschorke%NULL%1,                          M.%Milenova%NULL%1,                          G.%Thornicroft%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Polly H. X.%Ma%null%1,                  Zenobia C. Y.%Chan%null%1,                  Alice Yuen%Loke%null%1]</t>
+  </si>
+  <si>
+    <t>[ Harriet%Mills%null%1,                           Nadine%Mulfinger%null%1,                           Sophie%Raeder%null%1,                           Nicolas%Rüsch%null%1,                           Henry%Clements%null%1,                           Katrina%Scior%null%1,                          Harriet%Mills%null%1,                          Nadine%Mulfinger%null%1,                          Sophie%Raeder%null%1,                          Nicolas%Rüsch%null%1,                          Henry%Clements%null%1,                          Katrina%Scior%null%1]</t>
+  </si>
+  <si>
+    <t>[Marija%Pantelic%NULL%1,                          Janina I%Steinert%NULL%2,                          Janina I%Steinert%NULL%0,                          Jay%Park%NULL%1,                          Shaun%Mellors%NULL%1,                          Fungai%Murau%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1358,7 +1406,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1390,7 +1438,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="F3" t="s">
         <v>33</v>
@@ -1422,7 +1470,7 @@
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1454,7 +1502,7 @@
         <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -1486,7 +1534,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -1518,7 +1566,7 @@
         <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -1550,7 +1598,7 @@
         <v>152</v>
       </c>
       <c r="E8" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1582,7 +1630,7 @@
         <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -1614,7 +1662,7 @@
         <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="F10" t="s">
         <v>63</v>
@@ -1646,7 +1694,7 @@
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
